--- a/examples/vpcwebapp/xlsx/outputs.xlsx
+++ b/examples/vpcwebapp/xlsx/outputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/tabular-terraform/examples/vpcwebapp/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C74C9DE-CD41-AC41-8824-6A68A0DF6F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4439103B-C225-9641-B4B7-A2D588364AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="3120" windowWidth="25600" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="outputs" sheetId="65" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="outputs-backend" sheetId="76" r:id="rId5"/>
     <sheet name="outputs-bastion" sheetId="77" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -236,12 +236,6 @@
     <t>ibm_is_floating_ip.webappserver-zone2-fip[0].address</t>
   </si>
   <si>
-    <t>master_db</t>
-  </si>
-  <si>
-    <t>slave_db</t>
-  </si>
-  <si>
     <t>webappserver1</t>
   </si>
   <si>
@@ -260,18 +254,12 @@
     <t>ssh-webappserver1</t>
   </si>
   <si>
-    <t>ssh-masterdb</t>
-  </si>
-  <si>
     <t>ssh-bastionserver2</t>
   </si>
   <si>
     <t>ssh-webappserver2</t>
   </si>
   <si>
-    <t>ssh-slavedb</t>
-  </si>
-  <si>
     <t>ansible-bastion</t>
   </si>
   <si>
@@ -315,6 +303,18 @@
   </si>
   <si>
     <t>"ssh root@${module.bastion.bastionserver-zone2-fip}"</t>
+  </si>
+  <si>
+    <t>source_db</t>
+  </si>
+  <si>
+    <t>replica_db</t>
+  </si>
+  <si>
+    <t>ssh-sourcedb</t>
+  </si>
+  <si>
+    <t>ssh-replicadb</t>
   </si>
 </sst>
 </file>
@@ -633,9 +633,9 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{395F7750-01C3-E243-8594-17949678EE55}" name="Table321037" displayName="Table321037" ref="A1:E9" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E9" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{395F7750-01C3-E243-8594-17949678EE55}" name="Table321037" displayName="Table321037" ref="A1:E7" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E7" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="5">
@@ -915,7 +915,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -969,10 +969,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -982,10 +982,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1002,10 +1002,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1015,10 +1015,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1035,10 +1035,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1048,10 +1048,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1068,10 +1068,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1081,10 +1081,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1094,10 +1094,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1114,10 +1114,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1127,10 +1127,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1140,10 +1140,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1160,10 +1160,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1879,11 +1879,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C22CE1-D950-B846-B138-AD6DA2F513EF}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1912,47 +1910,47 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1964,28 +1962,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
